--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2862.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2862.xlsx
@@ -354,7 +354,7 @@
         <v>2.244345103056084</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.276817947037282</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2862.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2862.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196496792652861</v>
+        <v>1.147904872894287</v>
       </c>
       <c r="B1">
-        <v>2.244345103056084</v>
+        <v>1.531311273574829</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.561938047409058</v>
       </c>
       <c r="D1">
-        <v>2.276817947037282</v>
+        <v>3.697333574295044</v>
       </c>
       <c r="E1">
-        <v>1.21147188257594</v>
+        <v>0.9846777319908142</v>
       </c>
     </row>
   </sheetData>
